--- a/src/main/resources/excel/student_export.xlsx
+++ b/src/main/resources/excel/student_export.xlsx
@@ -98,35 +98,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>${item.birthTown}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.people}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.homeTown}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.address}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信号码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.qq}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>${item.gender}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${item.birth}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.birthTown}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.people}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.homeTown}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.address}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信号码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${item.qq}</t>
+    <t>${dateFormat:format(item.birth)}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -173,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,37 +209,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -250,8 +226,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -1434,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV9"/>
+  <dimension ref="A1:IV2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1493,7 +1467,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17" customHeight="1">
@@ -1522,155 +1496,29 @@
         <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="17" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" ht="17" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" ht="17" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" ht="17" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" ht="17" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" ht="17" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" ht="17" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/excel/student_export.xlsx
+++ b/src/main/resources/excel/student_export.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yyq/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -215,7 +220,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -225,10 +230,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -300,6 +308,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1410,17 +1423,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="8.75" style="1" customWidth="1"/>
-    <col min="17" max="256" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="16" width="8.75" style="4" customWidth="1"/>
+    <col min="17" max="19" width="9.375" style="4" customWidth="1"/>
+    <col min="20" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" customHeight="1">
+    <row r="1" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +1484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" customHeight="1">
+    <row r="2" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1527,10 +1541,5 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/src/main/resources/excel/student_export.xlsx
+++ b/src/main/resources/excel/student_export.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yyq/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14260"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -127,15 +122,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${item.gender}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dateFormat:format(item.birth)}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>${item.wechat}&lt;/jt:forEach&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.gender==0?"男":"女"}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.birth}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +231,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1424,17 +1419,17 @@
   <dimension ref="A1:IV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="16" width="8.75" style="4" customWidth="1"/>
     <col min="17" max="19" width="9.375" style="4" customWidth="1"/>
     <col min="20" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1484,7 +1479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="17" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1510,10 +1505,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>23</v>
@@ -1531,7 +1526,7 @@
         <v>28</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1541,5 +1536,10 @@
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/main/resources/excel/student_export.xlsx
+++ b/src/main/resources/excel/student_export.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${item.birth}</t>
+    <t>${item.birthStr}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1419,7 +1419,7 @@
   <dimension ref="A1:IV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>

--- a/src/main/resources/excel/student_export.xlsx
+++ b/src/main/resources/excel/student_export.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14260"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>曾用名</t>
-  </si>
-  <si>
     <t>班内职务</t>
   </si>
   <si>
@@ -82,10 +79,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>${item.otherName}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>${item.job}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -131,6 +124,14 @@
   </si>
   <si>
     <t>${item.birthStr}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>${item.parentName}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1419,7 +1420,7 @@
   <dimension ref="A1:IV2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1443,90 +1444,90 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="P2" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
